--- a/public/file/ornek-kaza-sablonu.xlsx
+++ b/public/file/ornek-kaza-sablonu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Berke Mert\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{671DF8E1-20D5-4C3B-8A8C-23E7CD6D88F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F6ECBEE-1E25-42AE-BF17-71CF1EAF98B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
   <si>
     <t>SIRANO</t>
   </si>
@@ -235,24 +235,6 @@
   </si>
   <si>
     <t>LOKASYON_ID</t>
-  </si>
-  <si>
-    <t>38 ABT 407</t>
-  </si>
-  <si>
-    <t>SRC0103</t>
-  </si>
-  <si>
-    <t>ORJIN 20.02.2024 12:15:56</t>
-  </si>
-  <si>
-    <t>MERKEZ</t>
-  </si>
-  <si>
-    <t>12:15:49</t>
-  </si>
-  <si>
-    <t>0000000001</t>
   </si>
 </sst>
 </file>
@@ -863,7 +845,7 @@
   <dimension ref="A1:BN2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1115,74 +1097,9 @@
       </c>
     </row>
     <row r="2" spans="1:66" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C2" s="1">
-        <v>45702</v>
-      </c>
-      <c r="D2" t="s">
-        <v>67</v>
-      </c>
+      <c r="C2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="S2" t="s">
-        <v>68</v>
-      </c>
-      <c r="T2" t="s">
-        <v>68</v>
-      </c>
-      <c r="U2" t="s">
-        <v>69</v>
-      </c>
-      <c r="V2" t="s">
-        <v>70</v>
-      </c>
-      <c r="W2">
-        <v>319265</v>
-      </c>
-      <c r="X2">
-        <v>0</v>
-      </c>
-      <c r="AF2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AG2">
-        <v>0</v>
-      </c>
-      <c r="AH2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AV2">
-        <v>91</v>
-      </c>
-      <c r="AY2">
-        <v>3053</v>
-      </c>
-      <c r="AZ2">
-        <v>3054</v>
-      </c>
-      <c r="BA2">
-        <v>3052</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
